--- a/Berita Acara MSP/30 Oktober 2023 (SSST).xlsx
+++ b/Berita Acara MSP/30 Oktober 2023 (SSST).xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Berita Acara Vendor\Berita Acara MSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74D77EB-631B-4D80-AB5B-411CE8CFA410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE78519-D66B-4D2E-AEAF-CE7D4F83C16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BC9D4688-D65C-46C5-9C2E-D35500656115}"/>
   </bookViews>
   <sheets>
-    <sheet name="PO-00306" sheetId="1" r:id="rId1"/>
+    <sheet name="SPK-1123-ALL-09" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>GOODS RECEIVED NOTE</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Ssst X Deadsquad Snakegoat T-Shirt Black XXL XXL</t>
-  </si>
-  <si>
-    <t>Benang putus</t>
   </si>
 </sst>
 </file>
@@ -728,29 +725,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -763,13 +739,34 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1141,7 +1138,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1243,10 +1240,10 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="G11" s="54">
+      <c r="G11" s="42">
         <v>45229</v>
       </c>
-      <c r="H11" s="54"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
@@ -1285,36 +1282,36 @@
       <c r="J15" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="47" t="s">
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="42" t="s">
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="48"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="14" t="s">
         <v>11</v>
       </c>
@@ -1324,7 +1321,7 @@
       <c r="I18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="43"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
@@ -1367,18 +1364,14 @@
         <v>10</v>
       </c>
       <c r="G20" s="24">
-        <v>9</v>
-      </c>
-      <c r="H20" s="24">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H20" s="24"/>
       <c r="I20" s="20">
         <f>G20+H20</f>
         <v>10</v>
       </c>
-      <c r="J20" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
@@ -1456,21 +1449,21 @@
       <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="26">
         <f>SUM(G19:G23)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" s="26">
         <f>SUM(H19:H23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="26">
         <f>SUM(G24:H24)</f>
@@ -1488,12 +1481,12 @@
       <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="46" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
@@ -1555,33 +1548,28 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="F35" s="54">
+      <c r="F35" s="42">
         <f>G11</f>
         <v>45229</v>
       </c>
-      <c r="G35" s="54"/>
-      <c r="I35" s="54">
+      <c r="G35" s="42"/>
+      <c r="I35" s="42">
         <v>45233</v>
       </c>
-      <c r="J35" s="54"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="40" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="J40" s="55"/>
+      <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="I41" s="39"/>
-      <c r="J41" s="56"/>
+      <c r="J41" s="48"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A11:D15 I11:J11 G13:J13 G15:J15" name="Penerimaan"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
     <mergeCell ref="J40:J41"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="A17:A18"/>
@@ -1589,6 +1577,11 @@
     <mergeCell ref="C17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
